--- a/Schedules/Airport 'JKIA' - Schedule.xlsx
+++ b/Schedules/Airport 'JKIA' - Schedule.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
   <si>
     <t>ID</t>
   </si>
@@ -23,10 +23,355 @@
     <t>Type</t>
   </si>
   <si>
+    <t>Airline</t>
+  </si>
+  <si>
     <t>Arrival</t>
   </si>
   <si>
     <t>Departure</t>
+  </si>
+  <si>
+    <t>NrPassengers</t>
+  </si>
+  <si>
+    <t>Domestic</t>
+  </si>
+  <si>
+    <t>NeedsFueling</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>B747</t>
+  </si>
+  <si>
+    <t>KLM</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>KQ</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>A320</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>70</t>
   </si>
 </sst>
 </file>
@@ -63,8 +408,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -362,7 +708,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -370,7 +716,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -382,6 +728,2800 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="F2" t="n">
+        <v>333</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0.2604166666666667</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.3541666666666667</v>
+      </c>
+      <c r="F3" t="n">
+        <v>547</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0.2604166666666667</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="F4" t="n">
+        <v>220</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="F5" t="n">
+        <v>241</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0.2847222222222222</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0.3576388888888889</v>
+      </c>
+      <c r="F6" t="n">
+        <v>626</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0.4305555555555556</v>
+      </c>
+      <c r="F7" t="n">
+        <v>198</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0.4340277777777778</v>
+      </c>
+      <c r="F8" t="n">
+        <v>127</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0.3020833333333333</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="F9" t="n">
+        <v>180</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>0.3090277777777778</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0.4722222222222222</v>
+      </c>
+      <c r="F10" t="n">
+        <v>219</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0.4340277777777778</v>
+      </c>
+      <c r="F11" t="n">
+        <v>613</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0.4270833333333333</v>
+      </c>
+      <c r="F12" t="n">
+        <v>206</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>0.3194444444444444</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0.3506944444444444</v>
+      </c>
+      <c r="F13" t="n">
+        <v>465</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>0.4097222222222222</v>
+      </c>
+      <c r="F14" t="n">
+        <v>161</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+      <c r="F15" t="n">
+        <v>150</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>0.3368055555555556</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0.5590277777777778</v>
+      </c>
+      <c r="F16" t="n">
+        <v>595</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>0.3402777777777778</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="F17" t="n">
+        <v>127</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>0.34375</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0.3993055555555556</v>
+      </c>
+      <c r="F18" t="n">
+        <v>227</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>0.34375</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="F19" t="n">
+        <v>161</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>0.3472222222222222</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="F20" t="n">
+        <v>177</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>0.3472222222222222</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>0.3784722222222222</v>
+      </c>
+      <c r="F21" t="n">
+        <v>130</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>0.3472222222222222</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>0.4340277777777778</v>
+      </c>
+      <c r="F22" t="n">
+        <v>199</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>0.3506944444444444</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>0.3958333333333333</v>
+      </c>
+      <c r="F23" t="n">
+        <v>505</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>0.59375</v>
+      </c>
+      <c r="F24" t="n">
+        <v>646</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>0.3715277777777778</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>0.4618055555555556</v>
+      </c>
+      <c r="F25" t="n">
+        <v>187</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>0.4756944444444444</v>
+      </c>
+      <c r="F26" t="n">
+        <v>203</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>0.3784722222222222</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>0.4409722222222222</v>
+      </c>
+      <c r="F27" t="n">
+        <v>562</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>0.3819444444444444</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="F28" t="n">
+        <v>443</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>0.4027777777777778</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="F29" t="n">
+        <v>546</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>0.5798611111111112</v>
+      </c>
+      <c r="F30" t="n">
+        <v>137</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="F31" t="n">
+        <v>213</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>0.4131944444444444</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>0.5138888888888888</v>
+      </c>
+      <c r="F32" t="n">
+        <v>517</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>0.5972222222222222</v>
+      </c>
+      <c r="F33" t="n">
+        <v>618</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>0.5381944444444444</v>
+      </c>
+      <c r="F34" t="n">
+        <v>640</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>0.4479166666666667</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="F35" t="n">
+        <v>185</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>0.5520833333333334</v>
+      </c>
+      <c r="F36" t="n">
+        <v>172</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="F37" t="n">
+        <v>574</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>0.4652777777777778</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>0.4965277777777778</v>
+      </c>
+      <c r="F38" t="n">
+        <v>284</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="F39" t="n">
+        <v>175</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>0.6076388888888888</v>
+      </c>
+      <c r="F40" t="n">
+        <v>192</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>0.6319444444444444</v>
+      </c>
+      <c r="F41" t="n">
+        <v>183</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>0.4965277777777778</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>0.6736111111111112</v>
+      </c>
+      <c r="F42" t="n">
+        <v>161</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>0.6423611111111112</v>
+      </c>
+      <c r="F43" t="n">
+        <v>412</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>0.5034722222222222</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>0.5868055555555556</v>
+      </c>
+      <c r="F44" t="n">
+        <v>189</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>0.5659722222222222</v>
+      </c>
+      <c r="F45" t="n">
+        <v>581</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>0.6006944444444444</v>
+      </c>
+      <c r="F46" t="n">
+        <v>514</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>0.5868055555555556</v>
+      </c>
+      <c r="F47" t="n">
+        <v>243</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>0.5138888888888888</v>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>0.5694444444444444</v>
+      </c>
+      <c r="F48" t="n">
+        <v>530</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>0.5173611111111112</v>
+      </c>
+      <c r="E49" s="1" t="n">
+        <v>0.5798611111111112</v>
+      </c>
+      <c r="F49" t="n">
+        <v>611</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="1" t="n">
+        <v>0.5173611111111112</v>
+      </c>
+      <c r="E50" s="1" t="n">
+        <v>0.5590277777777778</v>
+      </c>
+      <c r="F50" t="n">
+        <v>622</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="1" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="E51" s="1" t="n">
+        <v>0.6909722222222222</v>
+      </c>
+      <c r="F51" t="n">
+        <v>154</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>0.5590277777777778</v>
+      </c>
+      <c r="E52" s="1" t="n">
+        <v>0.6284722222222222</v>
+      </c>
+      <c r="F52" t="n">
+        <v>589</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>0.5729166666666666</v>
+      </c>
+      <c r="E53" s="1" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="F53" t="n">
+        <v>145</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>0.6215277777777778</v>
+      </c>
+      <c r="E54" s="1" t="n">
+        <v>0.7465277777777778</v>
+      </c>
+      <c r="F54" t="n">
+        <v>374</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="1" t="n">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="E55" s="1" t="n">
+        <v>0.8368055555555556</v>
+      </c>
+      <c r="F55" t="n">
+        <v>553</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="1" t="n">
+        <v>0.7048611111111112</v>
+      </c>
+      <c r="E56" s="1" t="n">
+        <v>0.7986111111111112</v>
+      </c>
+      <c r="F56" t="n">
+        <v>186</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="1" t="n">
+        <v>0.7048611111111112</v>
+      </c>
+      <c r="E57" s="1" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="F57" t="n">
+        <v>545</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="1" t="n">
+        <v>0.7048611111111112</v>
+      </c>
+      <c r="E58" s="1" t="n">
+        <v>0.7465277777777778</v>
+      </c>
+      <c r="F58" t="n">
+        <v>547</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="1" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="E59" s="1" t="n">
+        <v>0.8819444444444444</v>
+      </c>
+      <c r="F59" t="n">
+        <v>629</v>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="1" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="E60" s="1" t="n">
+        <v>0.8576388888888888</v>
+      </c>
+      <c r="F60" t="n">
+        <v>305</v>
+      </c>
+      <c r="G60" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="1" t="n">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="E61" s="1" t="n">
+        <v>0.7534722222222222</v>
+      </c>
+      <c r="F61" t="n">
+        <v>429</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="1" t="n">
+        <v>0.7256944444444444</v>
+      </c>
+      <c r="E62" s="1" t="n">
+        <v>0.7569444444444444</v>
+      </c>
+      <c r="F62" t="n">
+        <v>177</v>
+      </c>
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="1" t="n">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="E63" s="1" t="n">
+        <v>0.8715277777777778</v>
+      </c>
+      <c r="F63" t="n">
+        <v>584</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="1" t="n">
+        <v>0.7326388888888888</v>
+      </c>
+      <c r="E64" s="1" t="n">
+        <v>0.8229166666666666</v>
+      </c>
+      <c r="F64" t="n">
+        <v>640</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="1" t="n">
+        <v>0.7465277777777778</v>
+      </c>
+      <c r="E65" s="1" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="F65" t="n">
+        <v>609</v>
+      </c>
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="1" t="n">
+        <v>0.7534722222222222</v>
+      </c>
+      <c r="E66" s="1" t="n">
+        <v>0.8090277777777778</v>
+      </c>
+      <c r="F66" t="n">
+        <v>181</v>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="1" t="n">
+        <v>0.7534722222222222</v>
+      </c>
+      <c r="E67" s="1" t="n">
+        <v>0.8229166666666666</v>
+      </c>
+      <c r="F67" t="n">
+        <v>255</v>
+      </c>
+      <c r="G67" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="1" t="n">
+        <v>0.7638888888888888</v>
+      </c>
+      <c r="E68" s="1" t="n">
+        <v>0.8298611111111112</v>
+      </c>
+      <c r="F68" t="n">
+        <v>658</v>
+      </c>
+      <c r="G68" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="1" t="n">
+        <v>0.7743055555555556</v>
+      </c>
+      <c r="E69" s="1" t="n">
+        <v>0.8298611111111112</v>
+      </c>
+      <c r="F69" t="n">
+        <v>409</v>
+      </c>
+      <c r="G69" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>80</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="1" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E70" s="1" t="n">
+        <v>0.9756944444444444</v>
+      </c>
+      <c r="F70" t="n">
+        <v>602</v>
+      </c>
+      <c r="G70" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="1" t="n">
+        <v>0.7847222222222222</v>
+      </c>
+      <c r="E71" s="1" t="n">
+        <v>0.8229166666666666</v>
+      </c>
+      <c r="F71" t="n">
+        <v>496</v>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>82</v>
+      </c>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="1" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="E72" s="1" t="n">
+        <v>0.04513888888888889</v>
+      </c>
+      <c r="F72" t="n">
+        <v>617</v>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="1" t="n">
+        <v>0.8090277777777778</v>
+      </c>
+      <c r="E73" s="1" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F73" t="n">
+        <v>238</v>
+      </c>
+      <c r="G73" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" s="1" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="E74" s="1" t="n">
+        <v>0.8784722222222222</v>
+      </c>
+      <c r="F74" t="n">
+        <v>646</v>
+      </c>
+      <c r="G74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="1" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="E75" s="1" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="F75" t="n">
+        <v>529</v>
+      </c>
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="s">
+        <v>86</v>
+      </c>
+      <c r="B76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" s="1" t="n">
+        <v>0.8263888888888888</v>
+      </c>
+      <c r="E76" s="1" t="n">
+        <v>0.8958333333333334</v>
+      </c>
+      <c r="F76" t="n">
+        <v>354</v>
+      </c>
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="1" t="n">
+        <v>0.8298611111111112</v>
+      </c>
+      <c r="E77" s="1" t="n">
+        <v>0.9652777777777778</v>
+      </c>
+      <c r="F77" t="n">
+        <v>649</v>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>88</v>
+      </c>
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="1" t="n">
+        <v>0.8368055555555556</v>
+      </c>
+      <c r="E78" s="1" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="F78" t="n">
+        <v>588</v>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="1" t="n">
+        <v>0.8368055555555556</v>
+      </c>
+      <c r="E79" s="1" t="n">
+        <v>0.8784722222222222</v>
+      </c>
+      <c r="F79" t="n">
+        <v>232</v>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="1" t="n">
+        <v>0.8402777777777778</v>
+      </c>
+      <c r="E80" s="1" t="n">
+        <v>0.8715277777777778</v>
+      </c>
+      <c r="F80" t="n">
+        <v>413</v>
+      </c>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="1" t="n">
+        <v>0.8402777777777778</v>
+      </c>
+      <c r="E81" s="1" t="n">
+        <v>0.8715277777777778</v>
+      </c>
+      <c r="F81" t="n">
+        <v>389</v>
+      </c>
+      <c r="G81" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="s">
+        <v>92</v>
+      </c>
+      <c r="B82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="1" t="n">
+        <v>0.8402777777777778</v>
+      </c>
+      <c r="E82" s="1" t="n">
+        <v>0.03472222222222222</v>
+      </c>
+      <c r="F82" t="n">
+        <v>495</v>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="s">
+        <v>93</v>
+      </c>
+      <c r="B83" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" s="1" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="E83" s="1" t="n">
+        <v>0.9965277777777778</v>
+      </c>
+      <c r="F83" t="n">
+        <v>106</v>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="s">
+        <v>94</v>
+      </c>
+      <c r="B84" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="1" t="n">
+        <v>0.8611111111111112</v>
+      </c>
+      <c r="E84" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>256</v>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
+        <v>95</v>
+      </c>
+      <c r="B85" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="1" t="n">
+        <v>0.8611111111111112</v>
+      </c>
+      <c r="E85" s="1" t="n">
+        <v>0.9861111111111112</v>
+      </c>
+      <c r="F85" t="n">
+        <v>559</v>
+      </c>
+      <c r="G85" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
+        <v>96</v>
+      </c>
+      <c r="B86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="1" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E86" s="1" t="n">
+        <v>0.9131944444444444</v>
+      </c>
+      <c r="F86" t="n">
+        <v>491</v>
+      </c>
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="s">
+        <v>97</v>
+      </c>
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="1" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E87" s="1" t="n">
+        <v>0.9409722222222222</v>
+      </c>
+      <c r="F87" t="n">
+        <v>616</v>
+      </c>
+      <c r="G87" t="b">
+        <v>1</v>
+      </c>
+      <c r="H87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="s">
+        <v>98</v>
+      </c>
+      <c r="B88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" s="1" t="n">
+        <v>0.8819444444444444</v>
+      </c>
+      <c r="E88" s="1" t="n">
+        <v>0.9618055555555556</v>
+      </c>
+      <c r="F88" t="n">
+        <v>592</v>
+      </c>
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" t="s">
+        <v>99</v>
+      </c>
+      <c r="B89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" s="1" t="n">
+        <v>0.8819444444444444</v>
+      </c>
+      <c r="E89" s="1" t="n">
+        <v>0.9513888888888888</v>
+      </c>
+      <c r="F89" t="n">
+        <v>659</v>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="s">
+        <v>100</v>
+      </c>
+      <c r="B90" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="1" t="n">
+        <v>0.8854166666666666</v>
+      </c>
+      <c r="E90" s="1" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="F90" t="n">
+        <v>219</v>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="s">
+        <v>101</v>
+      </c>
+      <c r="B91" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="1" t="n">
+        <v>0.8854166666666666</v>
+      </c>
+      <c r="E91" s="1" t="n">
+        <v>0.02777777777777778</v>
+      </c>
+      <c r="F91" t="n">
+        <v>231</v>
+      </c>
+      <c r="G91" t="b">
+        <v>1</v>
+      </c>
+      <c r="H91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" t="s">
+        <v>102</v>
+      </c>
+      <c r="B92" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="1" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="E92" s="1" t="n">
+        <v>0.03472222222222222</v>
+      </c>
+      <c r="F92" t="n">
+        <v>551</v>
+      </c>
+      <c r="G92" t="b">
+        <v>0</v>
+      </c>
+      <c r="H92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" t="s">
+        <v>103</v>
+      </c>
+      <c r="B93" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="1" t="n">
+        <v>0.8958333333333334</v>
+      </c>
+      <c r="E93" s="1" t="n">
+        <v>0.9270833333333334</v>
+      </c>
+      <c r="F93" t="n">
+        <v>121</v>
+      </c>
+      <c r="G93" t="b">
+        <v>0</v>
+      </c>
+      <c r="H93" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>104</v>
+      </c>
+      <c r="B94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" s="1" t="n">
+        <v>0.9131944444444444</v>
+      </c>
+      <c r="E94" s="1" t="n">
+        <v>0.06597222222222222</v>
+      </c>
+      <c r="F94" t="n">
+        <v>594</v>
+      </c>
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" t="s">
+        <v>105</v>
+      </c>
+      <c r="B95" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="1" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="E95" s="1" t="n">
+        <v>0.05902777777777778</v>
+      </c>
+      <c r="F95" t="n">
+        <v>179</v>
+      </c>
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="s">
+        <v>106</v>
+      </c>
+      <c r="B96" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" s="1" t="n">
+        <v>0.9236111111111112</v>
+      </c>
+      <c r="E96" s="1" t="n">
+        <v>0.9548611111111112</v>
+      </c>
+      <c r="F96" t="n">
+        <v>116</v>
+      </c>
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
+        <v>107</v>
+      </c>
+      <c r="B97" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" s="1" t="n">
+        <v>0.9270833333333334</v>
+      </c>
+      <c r="E97" s="1" t="n">
+        <v>0.1354166666666667</v>
+      </c>
+      <c r="F97" t="n">
+        <v>615</v>
+      </c>
+      <c r="G97" t="b">
+        <v>0</v>
+      </c>
+      <c r="H97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" t="s">
+        <v>108</v>
+      </c>
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="1" t="n">
+        <v>0.9305555555555556</v>
+      </c>
+      <c r="E98" s="1" t="n">
+        <v>0.9618055555555556</v>
+      </c>
+      <c r="F98" t="n">
+        <v>540</v>
+      </c>
+      <c r="G98" t="b">
+        <v>1</v>
+      </c>
+      <c r="H98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" t="s">
+        <v>109</v>
+      </c>
+      <c r="B99" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="1" t="n">
+        <v>0.9340277777777778</v>
+      </c>
+      <c r="E99" s="1" t="n">
+        <v>0.02430555555555556</v>
+      </c>
+      <c r="F99" t="n">
+        <v>157</v>
+      </c>
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" t="s">
+        <v>110</v>
+      </c>
+      <c r="B100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" s="1" t="n">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="E100" s="1" t="n">
+        <v>0.02777777777777778</v>
+      </c>
+      <c r="F100" t="n">
+        <v>503</v>
+      </c>
+      <c r="G100" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" t="s">
+        <v>111</v>
+      </c>
+      <c r="B101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" s="1" t="n">
+        <v>0.9548611111111112</v>
+      </c>
+      <c r="E101" s="1" t="n">
+        <v>0.1006944444444444</v>
+      </c>
+      <c r="F101" t="n">
+        <v>371</v>
+      </c>
+      <c r="G101" t="b">
+        <v>0</v>
+      </c>
+      <c r="H101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
+        <v>112</v>
+      </c>
+      <c r="B102" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="1" t="n">
+        <v>0.9548611111111112</v>
+      </c>
+      <c r="E102" s="1" t="n">
+        <v>0.1006944444444444</v>
+      </c>
+      <c r="F102" t="n">
+        <v>166</v>
+      </c>
+      <c r="G102" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" t="s">
+        <v>113</v>
+      </c>
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="1" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="E103" s="1" t="n">
+        <v>0.08680555555555555</v>
+      </c>
+      <c r="F103" t="n">
+        <v>617</v>
+      </c>
+      <c r="G103" t="b">
+        <v>1</v>
+      </c>
+      <c r="H103" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" t="s">
+        <v>114</v>
+      </c>
+      <c r="B104" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" s="1" t="n">
+        <v>0.9756944444444444</v>
+      </c>
+      <c r="E104" s="1" t="n">
+        <v>0.09027777777777778</v>
+      </c>
+      <c r="F104" t="n">
+        <v>196</v>
+      </c>
+      <c r="G104" t="b">
+        <v>0</v>
+      </c>
+      <c r="H104" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" t="s">
+        <v>115</v>
+      </c>
+      <c r="B105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" s="1" t="n">
+        <v>0.9791666666666666</v>
+      </c>
+      <c r="E105" s="1" t="n">
+        <v>0.09722222222222222</v>
+      </c>
+      <c r="F105" t="n">
+        <v>161</v>
+      </c>
+      <c r="G105" t="b">
+        <v>0</v>
+      </c>
+      <c r="H105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" t="s">
+        <v>116</v>
+      </c>
+      <c r="B106" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" s="1" t="n">
+        <v>0.9791666666666666</v>
+      </c>
+      <c r="E106" s="1" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F106" t="n">
+        <v>190</v>
+      </c>
+      <c r="G106" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" t="s">
+        <v>117</v>
+      </c>
+      <c r="B107" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="1" t="n">
+        <v>0.9930555555555556</v>
+      </c>
+      <c r="E107" s="1" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="F107" t="n">
+        <v>572</v>
+      </c>
+      <c r="G107" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" t="s">
+        <v>118</v>
+      </c>
+      <c r="B108" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="1" t="n">
+        <v>0.9930555555555556</v>
+      </c>
+      <c r="E108" s="1" t="n">
+        <v>0.09722222222222222</v>
+      </c>
+      <c r="F108" t="n">
+        <v>423</v>
+      </c>
+      <c r="G108" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Schedules/Airport 'JKIA' - Schedule.xlsx
+++ b/Schedules/Airport 'JKIA' - Schedule.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="147">
   <si>
     <t>ID</t>
   </si>
@@ -41,337 +41,421 @@
     <t>NeedsFueling</t>
   </si>
   <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>A320</t>
+  </si>
+  <si>
+    <t>EY</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>B772</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>AT7</t>
+  </si>
+  <si>
+    <t>PW</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>E90</t>
+  </si>
+  <si>
+    <t>TM</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>B737</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>A332</t>
+  </si>
+  <si>
+    <t>MK</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>QR</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>B738</t>
+  </si>
+  <si>
+    <t>KQ</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>WB</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>A330</t>
+  </si>
+  <si>
+    <t>LX</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>B773</t>
+  </si>
+  <si>
+    <t>EK</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>CZ</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>B747</t>
+  </si>
+  <si>
+    <t>KLM</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>B788</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>B778</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
     <t>52</t>
   </si>
   <si>
-    <t>B747</t>
-  </si>
-  <si>
-    <t>KLM</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>KQ</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>A320</t>
-  </si>
-  <si>
-    <t>21</t>
+    <t>86</t>
+  </si>
+  <si>
+    <t>Q400</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>95</t>
   </si>
   <si>
     <t>43</t>
   </si>
   <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>38</t>
+    <t>15</t>
+  </si>
+  <si>
+    <t>B73J</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>71</t>
   </si>
   <si>
     <t>47</t>
   </si>
   <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>71</t>
+    <t>35</t>
   </si>
   <si>
     <t>80</t>
   </si>
   <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
     <t>105</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>70</t>
   </si>
 </sst>
 </file>
@@ -752,20 +836,20 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>0.3576388888888889</v>
+      <c s="1" r="D2" t="n">
+        <v>0.2569444444444444</v>
+      </c>
+      <c s="1" r="E2" t="n">
+        <v>0.4513888888888889</v>
       </c>
       <c r="F2" t="n">
-        <v>333</v>
+        <v>164</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -773,19 +857,19 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>0.2604166666666667</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>0.3541666666666667</v>
+        <v>13</v>
+      </c>
+      <c s="1" r="D3" t="n">
+        <v>0.2569444444444444</v>
+      </c>
+      <c s="1" r="E3" t="n">
+        <v>0.4375</v>
       </c>
       <c r="F3" t="n">
-        <v>547</v>
+        <v>305</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -796,103 +880,103 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>0.2604166666666667</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>0.2916666666666667</v>
+        <v>16</v>
+      </c>
+      <c s="1" r="D4" t="n">
+        <v>0.2638888888888889</v>
+      </c>
+      <c s="1" r="E4" t="n">
+        <v>0.3541666666666667</v>
       </c>
       <c r="F4" t="n">
-        <v>220</v>
+        <v>46</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>0.2638888888888889</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>0.4375</v>
+        <v>19</v>
+      </c>
+      <c s="1" r="D5" t="n">
+        <v>0.2881944444444444</v>
+      </c>
+      <c s="1" r="E5" t="n">
+        <v>0.4027777777777778</v>
       </c>
       <c r="F5" t="n">
-        <v>241</v>
+        <v>85</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>0.2847222222222222</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>0.3576388888888889</v>
+      <c s="1" r="D6" t="n">
+        <v>0.2951388888888889</v>
+      </c>
+      <c s="1" r="E6" t="n">
+        <v>0.3263888888888889</v>
       </c>
       <c r="F6" t="n">
-        <v>626</v>
+        <v>19</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>0.2916666666666667</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>0.4305555555555556</v>
+        <v>23</v>
+      </c>
+      <c s="1" r="D7" t="n">
+        <v>0.2986111111111111</v>
+      </c>
+      <c s="1" r="E7" t="n">
+        <v>0.3819444444444444</v>
       </c>
       <c r="F7" t="n">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
@@ -900,22 +984,22 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>0.2986111111111111</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>0.4340277777777778</v>
+        <v>13</v>
+      </c>
+      <c s="1" r="D8" t="n">
+        <v>0.3020833333333333</v>
+      </c>
+      <c s="1" r="E8" t="n">
+        <v>0.4513888888888889</v>
       </c>
       <c r="F8" t="n">
-        <v>127</v>
+        <v>292</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -926,48 +1010,48 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c s="1" r="D9" t="n">
         <v>0.3020833333333333</v>
       </c>
-      <c r="E9" s="1" t="n">
-        <v>0.3333333333333333</v>
+      <c s="1" r="E9" t="n">
+        <v>0.4340277777777778</v>
       </c>
       <c r="F9" t="n">
-        <v>180</v>
+        <v>34</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>0.3090277777777778</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>0.4722222222222222</v>
+        <v>27</v>
+      </c>
+      <c s="1" r="D10" t="n">
+        <v>0.3055555555555556</v>
+      </c>
+      <c s="1" r="E10" t="n">
+        <v>0.4270833333333333</v>
       </c>
       <c r="F10" t="n">
-        <v>219</v>
+        <v>149</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
@@ -978,25 +1062,25 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>0.4340277777777778</v>
+        <v>30</v>
+      </c>
+      <c s="1" r="D11" t="n">
+        <v>0.3055555555555556</v>
+      </c>
+      <c s="1" r="E11" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="F11" t="n">
-        <v>613</v>
+        <v>253</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
@@ -1004,48 +1088,48 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <v>0.4270833333333333</v>
+        <v>32</v>
+      </c>
+      <c s="1" r="D12" t="n">
+        <v>0.3055555555555556</v>
+      </c>
+      <c s="1" r="E12" t="n">
+        <v>0.3784722222222222</v>
       </c>
       <c r="F12" t="n">
-        <v>206</v>
+        <v>153</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <v>0.3194444444444444</v>
-      </c>
-      <c r="E13" s="1" t="n">
-        <v>0.3506944444444444</v>
+        <v>27</v>
+      </c>
+      <c s="1" r="D13" t="n">
+        <v>0.3090277777777778</v>
+      </c>
+      <c s="1" r="E13" t="n">
+        <v>0.4305555555555556</v>
       </c>
       <c r="F13" t="n">
-        <v>465</v>
+        <v>143</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -1056,22 +1140,22 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="1" t="n">
-        <v>0.3263888888888889</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <v>0.4097222222222222</v>
+        <v>36</v>
+      </c>
+      <c s="1" r="D14" t="n">
+        <v>0.3159722222222222</v>
+      </c>
+      <c s="1" r="E14" t="n">
+        <v>0.4340277777777778</v>
       </c>
       <c r="F14" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -1082,22 +1166,22 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>0.3298611111111111</v>
-      </c>
-      <c r="E15" s="1" t="n">
-        <v>0.4791666666666667</v>
+        <v>13</v>
+      </c>
+      <c s="1" r="D15" t="n">
+        <v>0.3194444444444444</v>
+      </c>
+      <c s="1" r="E15" t="n">
+        <v>0.5173611111111112</v>
       </c>
       <c r="F15" t="n">
-        <v>150</v>
+        <v>246</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -1108,22 +1192,22 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="1" t="n">
-        <v>0.3368055555555556</v>
-      </c>
-      <c r="E16" s="1" t="n">
-        <v>0.5590277777777778</v>
+        <v>30</v>
+      </c>
+      <c s="1" r="D16" t="n">
+        <v>0.3194444444444444</v>
+      </c>
+      <c s="1" r="E16" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="F16" t="n">
-        <v>595</v>
+        <v>195</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -1134,25 +1218,25 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="1" t="n">
-        <v>0.3402777777777778</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <v>0.40625</v>
+        <v>40</v>
+      </c>
+      <c s="1" r="D17" t="n">
+        <v>0.3229166666666667</v>
+      </c>
+      <c s="1" r="E17" t="n">
+        <v>0.3611111111111111</v>
       </c>
       <c r="F17" t="n">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
@@ -1160,22 +1244,22 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="1" t="n">
-        <v>0.34375</v>
-      </c>
-      <c r="E18" s="1" t="n">
-        <v>0.3993055555555556</v>
+        <v>23</v>
+      </c>
+      <c s="1" r="D18" t="n">
+        <v>0.3263888888888889</v>
+      </c>
+      <c s="1" r="E18" t="n">
+        <v>0.3958333333333333</v>
       </c>
       <c r="F18" t="n">
-        <v>227</v>
+        <v>131</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -1186,25 +1270,25 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="1" t="n">
-        <v>0.34375</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <v>0.5555555555555556</v>
+        <v>40</v>
+      </c>
+      <c s="1" r="D19" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c s="1" r="E19" t="n">
+        <v>0.4513888888888889</v>
       </c>
       <c r="F19" t="n">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -1212,22 +1296,22 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c s="1" r="D20" t="n">
         <v>0.3472222222222222</v>
       </c>
-      <c r="E20" s="1" t="n">
-        <v>0.46875</v>
+      <c s="1" r="E20" t="n">
+        <v>0.4583333333333333</v>
       </c>
       <c r="F20" t="n">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
@@ -1238,155 +1322,155 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c s="1" r="D21" t="n">
         <v>0.3472222222222222</v>
       </c>
-      <c r="E21" s="1" t="n">
-        <v>0.3784722222222222</v>
+      <c s="1" r="E21" t="n">
+        <v>0.4583333333333333</v>
       </c>
       <c r="F21" t="n">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="1" t="n">
-        <v>0.3472222222222222</v>
-      </c>
-      <c r="E22" s="1" t="n">
-        <v>0.4340277777777778</v>
+        <v>13</v>
+      </c>
+      <c s="1" r="D22" t="n">
+        <v>0.3576388888888889</v>
+      </c>
+      <c s="1" r="E22" t="n">
+        <v>0.3888888888888889</v>
       </c>
       <c r="F22" t="n">
-        <v>199</v>
+        <v>248</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="1" t="n">
-        <v>0.3506944444444444</v>
-      </c>
-      <c r="E23" s="1" t="n">
-        <v>0.3958333333333333</v>
+        <v>23</v>
+      </c>
+      <c s="1" r="D23" t="n">
+        <v>0.3611111111111111</v>
+      </c>
+      <c s="1" r="E23" t="n">
+        <v>0.5451388888888888</v>
       </c>
       <c r="F23" t="n">
-        <v>505</v>
+        <v>176</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="1" t="n">
-        <v>0.3645833333333333</v>
-      </c>
-      <c r="E24" s="1" t="n">
-        <v>0.59375</v>
+        <v>51</v>
+      </c>
+      <c s="1" r="D24" t="n">
+        <v>0.3680555555555556</v>
+      </c>
+      <c s="1" r="E24" t="n">
+        <v>0.4444444444444444</v>
       </c>
       <c r="F24" t="n">
-        <v>646</v>
+        <v>197</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
         <v>35</v>
       </c>
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
       <c r="C25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="1" t="n">
-        <v>0.3715277777777778</v>
-      </c>
-      <c r="E25" s="1" t="n">
-        <v>0.4618055555555556</v>
+        <v>23</v>
+      </c>
+      <c s="1" r="D25" t="n">
+        <v>0.3784722222222222</v>
+      </c>
+      <c s="1" r="E25" t="n">
+        <v>0.4895833333333333</v>
       </c>
       <c r="F25" t="n">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="1" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="E26" s="1" t="n">
-        <v>0.4756944444444444</v>
+        <v>51</v>
+      </c>
+      <c s="1" r="D26" t="n">
+        <v>0.3923611111111111</v>
+      </c>
+      <c s="1" r="E26" t="n">
+        <v>0.4409722222222222</v>
       </c>
       <c r="F26" t="n">
-        <v>203</v>
+        <v>252</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="b">
         <v>1</v>
@@ -1394,25 +1478,25 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="1" t="n">
-        <v>0.3784722222222222</v>
-      </c>
-      <c r="E27" s="1" t="n">
-        <v>0.4409722222222222</v>
+        <v>56</v>
+      </c>
+      <c s="1" r="D27" t="n">
+        <v>0.4027777777777778</v>
+      </c>
+      <c s="1" r="E27" t="n">
+        <v>0.4895833333333333</v>
       </c>
       <c r="F27" t="n">
-        <v>562</v>
+        <v>360</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1420,22 +1504,22 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="1" t="n">
-        <v>0.3819444444444444</v>
-      </c>
-      <c r="E28" s="1" t="n">
-        <v>0.4548611111111111</v>
+        <v>36</v>
+      </c>
+      <c s="1" r="D28" t="n">
+        <v>0.4097222222222222</v>
+      </c>
+      <c s="1" r="E28" t="n">
+        <v>0.4756944444444444</v>
       </c>
       <c r="F28" t="n">
-        <v>443</v>
+        <v>103</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
@@ -1446,25 +1530,25 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="1" t="n">
-        <v>0.4027777777777778</v>
-      </c>
-      <c r="E29" s="1" t="n">
-        <v>0.4583333333333333</v>
+        <v>59</v>
+      </c>
+      <c s="1" r="D29" t="n">
+        <v>0.4097222222222222</v>
+      </c>
+      <c s="1" r="E29" t="n">
+        <v>0.4895833333333333</v>
       </c>
       <c r="F29" t="n">
-        <v>546</v>
+        <v>205</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1472,22 +1556,22 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="1" t="n">
-        <v>0.40625</v>
-      </c>
-      <c r="E30" s="1" t="n">
-        <v>0.5798611111111112</v>
+        <v>13</v>
+      </c>
+      <c s="1" r="D30" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c s="1" r="E30" t="n">
+        <v>0.5868055555555556</v>
       </c>
       <c r="F30" t="n">
-        <v>137</v>
+        <v>220</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
@@ -1498,22 +1582,22 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="1" t="n">
-        <v>0.40625</v>
-      </c>
-      <c r="E31" s="1" t="n">
-        <v>0.4583333333333333</v>
+        <v>44</v>
+      </c>
+      <c s="1" r="D31" t="n">
+        <v>0.4201388888888889</v>
+      </c>
+      <c s="1" r="E31" t="n">
+        <v>0.5694444444444444</v>
       </c>
       <c r="F31" t="n">
-        <v>213</v>
+        <v>143</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
@@ -1524,48 +1608,48 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="1" t="n">
-        <v>0.4131944444444444</v>
-      </c>
-      <c r="E32" s="1" t="n">
-        <v>0.5138888888888888</v>
+        <v>59</v>
+      </c>
+      <c s="1" r="D32" t="n">
+        <v>0.4375</v>
+      </c>
+      <c s="1" r="E32" t="n">
+        <v>0.5173611111111112</v>
       </c>
       <c r="F32" t="n">
-        <v>517</v>
+        <v>274</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="1" t="n">
-        <v>0.4236111111111111</v>
-      </c>
-      <c r="E33" s="1" t="n">
-        <v>0.5972222222222222</v>
+        <v>32</v>
+      </c>
+      <c s="1" r="D33" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c s="1" r="E33" t="n">
+        <v>0.4861111111111111</v>
       </c>
       <c r="F33" t="n">
-        <v>618</v>
+        <v>80</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
@@ -1576,25 +1660,25 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="1" t="n">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="E34" s="1" t="n">
-        <v>0.5381944444444444</v>
+        <v>32</v>
+      </c>
+      <c s="1" r="D34" t="n">
+        <v>0.4548611111111111</v>
+      </c>
+      <c s="1" r="E34" t="n">
+        <v>0.5659722222222222</v>
       </c>
       <c r="F34" t="n">
-        <v>640</v>
+        <v>117</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="b">
         <v>1</v>
@@ -1602,48 +1686,48 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="1" t="n">
-        <v>0.4479166666666667</v>
-      </c>
-      <c r="E35" s="1" t="n">
-        <v>0.5416666666666666</v>
+        <v>13</v>
+      </c>
+      <c s="1" r="D35" t="n">
+        <v>0.4652777777777778</v>
+      </c>
+      <c s="1" r="E35" t="n">
+        <v>0.5243055555555556</v>
       </c>
       <c r="F35" t="n">
-        <v>185</v>
+        <v>99</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+      <c s="1" r="D36" t="n">
+        <v>0.4722222222222222</v>
+      </c>
+      <c s="1" r="E36" t="n">
+        <v>0.5763888888888888</v>
+      </c>
+      <c r="F36" t="n">
         <v>46</v>
-      </c>
-      <c r="B36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="1" t="n">
-        <v>0.4513888888888889</v>
-      </c>
-      <c r="E36" s="1" t="n">
-        <v>0.5520833333333334</v>
-      </c>
-      <c r="F36" t="n">
-        <v>172</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
@@ -1654,22 +1738,22 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="1" t="n">
-        <v>0.4513888888888889</v>
-      </c>
-      <c r="E37" s="1" t="n">
-        <v>0.5069444444444444</v>
+        <v>56</v>
+      </c>
+      <c s="1" r="D37" t="n">
+        <v>0.4791666666666667</v>
+      </c>
+      <c s="1" r="E37" t="n">
+        <v>0.6006944444444444</v>
       </c>
       <c r="F37" t="n">
-        <v>574</v>
+        <v>266</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
@@ -1680,22 +1764,22 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="1" t="n">
-        <v>0.4652777777777778</v>
-      </c>
-      <c r="E38" s="1" t="n">
-        <v>0.4965277777777778</v>
+        <v>59</v>
+      </c>
+      <c s="1" r="D38" t="n">
+        <v>0.4930555555555556</v>
+      </c>
+      <c s="1" r="E38" t="n">
+        <v>0.59375</v>
       </c>
       <c r="F38" t="n">
-        <v>284</v>
+        <v>242</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
@@ -1706,51 +1790,51 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="1" t="n">
-        <v>0.46875</v>
-      </c>
-      <c r="E39" s="1" t="n">
-        <v>0.5555555555555556</v>
+        <v>30</v>
+      </c>
+      <c s="1" r="D39" t="n">
+        <v>0.5</v>
+      </c>
+      <c s="1" r="E39" t="n">
+        <v>0.5902777777777778</v>
       </c>
       <c r="F39" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="1" t="n">
-        <v>0.4826388888888889</v>
-      </c>
-      <c r="E40" s="1" t="n">
-        <v>0.6076388888888888</v>
+        <v>19</v>
+      </c>
+      <c s="1" r="D40" t="n">
+        <v>0.5034722222222222</v>
+      </c>
+      <c s="1" r="E40" t="n">
+        <v>0.5659722222222222</v>
       </c>
       <c r="F40" t="n">
-        <v>192</v>
+        <v>49</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="b">
         <v>1</v>
@@ -1758,25 +1842,25 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="1" t="n">
-        <v>0.4861111111111111</v>
-      </c>
-      <c r="E41" s="1" t="n">
-        <v>0.6319444444444444</v>
+        <v>27</v>
+      </c>
+      <c s="1" r="D41" t="n">
+        <v>0.5034722222222222</v>
+      </c>
+      <c s="1" r="E41" t="n">
+        <v>0.6527777777777778</v>
       </c>
       <c r="F41" t="n">
-        <v>183</v>
+        <v>119</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="b">
         <v>1</v>
@@ -1784,100 +1868,100 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B42" t="s">
         <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="1" t="n">
-        <v>0.4965277777777778</v>
-      </c>
-      <c r="E42" s="1" t="n">
-        <v>0.6736111111111112</v>
+        <v>73</v>
+      </c>
+      <c s="1" r="D42" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c s="1" r="E42" t="n">
+        <v>0.6631944444444444</v>
       </c>
       <c r="F42" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E43" s="1" t="n">
-        <v>0.6423611111111112</v>
+        <v>59</v>
+      </c>
+      <c s="1" r="D43" t="n">
+        <v>0.5104166666666666</v>
+      </c>
+      <c s="1" r="E43" t="n">
+        <v>0.5833333333333334</v>
       </c>
       <c r="F43" t="n">
-        <v>412</v>
+        <v>264</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="1" t="n">
-        <v>0.5034722222222222</v>
-      </c>
-      <c r="E44" s="1" t="n">
-        <v>0.5868055555555556</v>
+        <v>30</v>
+      </c>
+      <c s="1" r="D44" t="n">
+        <v>0.5173611111111112</v>
+      </c>
+      <c s="1" r="E44" t="n">
+        <v>0.5486111111111112</v>
       </c>
       <c r="F44" t="n">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="1" t="n">
-        <v>0.5069444444444444</v>
-      </c>
-      <c r="E45" s="1" t="n">
-        <v>0.5659722222222222</v>
+        <v>78</v>
+      </c>
+      <c s="1" r="D45" t="n">
+        <v>0.5486111111111112</v>
+      </c>
+      <c s="1" r="E45" t="n">
+        <v>0.6354166666666666</v>
       </c>
       <c r="F45" t="n">
-        <v>581</v>
+        <v>207</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
@@ -1888,48 +1972,48 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="B46" t="s">
         <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="1" t="n">
-        <v>0.5069444444444444</v>
-      </c>
-      <c r="E46" s="1" t="n">
-        <v>0.6006944444444444</v>
+        <v>80</v>
+      </c>
+      <c s="1" r="D46" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c s="1" r="E46" t="n">
+        <v>0.6666666666666666</v>
       </c>
       <c r="F46" t="n">
-        <v>514</v>
+        <v>112</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="1" t="n">
-        <v>0.5069444444444444</v>
-      </c>
-      <c r="E47" s="1" t="n">
-        <v>0.5868055555555556</v>
+        <v>78</v>
+      </c>
+      <c s="1" r="D47" t="n">
+        <v>0.5729166666666666</v>
+      </c>
+      <c s="1" r="E47" t="n">
+        <v>0.7395833333333334</v>
       </c>
       <c r="F47" t="n">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
@@ -1940,48 +2024,48 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="1" t="n">
-        <v>0.5138888888888888</v>
-      </c>
-      <c r="E48" s="1" t="n">
-        <v>0.5694444444444444</v>
+        <v>23</v>
+      </c>
+      <c s="1" r="D48" t="n">
+        <v>0.5972222222222222</v>
+      </c>
+      <c s="1" r="E48" t="n">
+        <v>0.6770833333333334</v>
       </c>
       <c r="F48" t="n">
-        <v>530</v>
+        <v>140</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="1" t="n">
-        <v>0.5173611111111112</v>
-      </c>
-      <c r="E49" s="1" t="n">
-        <v>0.5798611111111112</v>
+        <v>30</v>
+      </c>
+      <c s="1" r="D49" t="n">
+        <v>0.6180555555555556</v>
+      </c>
+      <c s="1" r="E49" t="n">
+        <v>0.7534722222222222</v>
       </c>
       <c r="F49" t="n">
-        <v>611</v>
+        <v>283</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
@@ -1992,51 +2076,51 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="1" t="n">
-        <v>0.5173611111111112</v>
-      </c>
-      <c r="E50" s="1" t="n">
-        <v>0.5590277777777778</v>
+        <v>19</v>
+      </c>
+      <c s="1" r="D50" t="n">
+        <v>0.6527777777777778</v>
+      </c>
+      <c s="1" r="E50" t="n">
+        <v>0.8541666666666666</v>
       </c>
       <c r="F50" t="n">
-        <v>622</v>
+        <v>82</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="1" t="n">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="E51" s="1" t="n">
-        <v>0.6909722222222222</v>
+        <v>78</v>
+      </c>
+      <c s="1" r="D51" t="n">
+        <v>0.6597222222222222</v>
+      </c>
+      <c s="1" r="E51" t="n">
+        <v>0.7430555555555556</v>
       </c>
       <c r="F51" t="n">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="G51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="b">
         <v>1</v>
@@ -2044,25 +2128,25 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="1" t="n">
-        <v>0.5590277777777778</v>
-      </c>
-      <c r="E52" s="1" t="n">
-        <v>0.6284722222222222</v>
+        <v>56</v>
+      </c>
+      <c s="1" r="D52" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c s="1" r="E52" t="n">
+        <v>0.7048611111111112</v>
       </c>
       <c r="F52" t="n">
-        <v>589</v>
+        <v>288</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
@@ -2070,48 +2154,48 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="1" t="n">
-        <v>0.5729166666666666</v>
-      </c>
-      <c r="E53" s="1" t="n">
-        <v>0.6111111111111112</v>
+      <c s="1" r="D53" t="n">
+        <v>0.6701388888888888</v>
+      </c>
+      <c s="1" r="E53" t="n">
+        <v>0.71875</v>
       </c>
       <c r="F53" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="B54" t="s">
         <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="1" t="n">
-        <v>0.6215277777777778</v>
-      </c>
-      <c r="E54" s="1" t="n">
-        <v>0.7465277777777778</v>
+        <v>10</v>
+      </c>
+      <c s="1" r="D54" t="n">
+        <v>0.6770833333333334</v>
+      </c>
+      <c s="1" r="E54" t="n">
+        <v>0.71875</v>
       </c>
       <c r="F54" t="n">
-        <v>374</v>
+        <v>157</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
@@ -2122,25 +2206,25 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="1" t="n">
-        <v>0.6944444444444444</v>
-      </c>
-      <c r="E55" s="1" t="n">
-        <v>0.8368055555555556</v>
+        <v>13</v>
+      </c>
+      <c s="1" r="D55" t="n">
+        <v>0.6909722222222222</v>
+      </c>
+      <c s="1" r="E55" t="n">
+        <v>0.84375</v>
       </c>
       <c r="F55" t="n">
-        <v>553</v>
+        <v>288</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -2148,25 +2232,25 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="1" t="n">
-        <v>0.7048611111111112</v>
-      </c>
-      <c r="E56" s="1" t="n">
-        <v>0.7986111111111112</v>
+        <v>36</v>
+      </c>
+      <c s="1" r="D56" t="n">
+        <v>0.6909722222222222</v>
+      </c>
+      <c s="1" r="E56" t="n">
+        <v>0.7361111111111112</v>
       </c>
       <c r="F56" t="n">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="b">
         <v>1</v>
@@ -2174,25 +2258,25 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C57" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" s="1" t="n">
-        <v>0.7048611111111112</v>
-      </c>
-      <c r="E57" s="1" t="n">
-        <v>0.78125</v>
+        <v>30</v>
+      </c>
+      <c s="1" r="D57" t="n">
+        <v>0.6944444444444444</v>
+      </c>
+      <c s="1" r="E57" t="n">
+        <v>0.9166666666666666</v>
       </c>
       <c r="F57" t="n">
-        <v>545</v>
+        <v>203</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
@@ -2200,22 +2284,22 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="B58" t="s">
         <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="1" t="n">
-        <v>0.7048611111111112</v>
-      </c>
-      <c r="E58" s="1" t="n">
-        <v>0.7465277777777778</v>
+        <v>73</v>
+      </c>
+      <c s="1" r="D58" t="n">
+        <v>0.6979166666666666</v>
+      </c>
+      <c s="1" r="E58" t="n">
+        <v>0.7847222222222222</v>
       </c>
       <c r="F58" t="n">
-        <v>547</v>
+        <v>144</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
@@ -2226,25 +2310,25 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="1" t="n">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="E59" s="1" t="n">
-        <v>0.8819444444444444</v>
+        <v>36</v>
+      </c>
+      <c s="1" r="D59" t="n">
+        <v>0.7048611111111112</v>
+      </c>
+      <c s="1" r="E59" t="n">
+        <v>0.8090277777777778</v>
       </c>
       <c r="F59" t="n">
-        <v>629</v>
+        <v>164</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="b">
         <v>1</v>
@@ -2252,22 +2336,22 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" s="1" t="n">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="E60" s="1" t="n">
-        <v>0.8576388888888888</v>
+        <v>30</v>
+      </c>
+      <c s="1" r="D60" t="n">
+        <v>0.7048611111111112</v>
+      </c>
+      <c s="1" r="E60" t="n">
+        <v>0.78125</v>
       </c>
       <c r="F60" t="n">
-        <v>305</v>
+        <v>150</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
@@ -2278,25 +2362,25 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="1" t="n">
-        <v>0.7222222222222222</v>
-      </c>
-      <c r="E61" s="1" t="n">
-        <v>0.7534722222222222</v>
+        <v>13</v>
+      </c>
+      <c s="1" r="D61" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c s="1" r="E61" t="n">
+        <v>0.8194444444444444</v>
       </c>
       <c r="F61" t="n">
-        <v>429</v>
+        <v>267</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
@@ -2304,22 +2388,22 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" s="1" t="n">
-        <v>0.7256944444444444</v>
-      </c>
-      <c r="E62" s="1" t="n">
-        <v>0.7569444444444444</v>
+        <v>80</v>
+      </c>
+      <c s="1" r="D62" t="n">
+        <v>0.7083333333333334</v>
+      </c>
+      <c s="1" r="E62" t="n">
+        <v>0.7916666666666666</v>
       </c>
       <c r="F62" t="n">
-        <v>177</v>
+        <v>50</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
@@ -2330,77 +2414,77 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C63" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="1" t="n">
-        <v>0.7291666666666666</v>
-      </c>
-      <c r="E63" s="1" t="n">
-        <v>0.8715277777777778</v>
+        <v>56</v>
+      </c>
+      <c s="1" r="D63" t="n">
+        <v>0.7118055555555556</v>
+      </c>
+      <c s="1" r="E63" t="n">
+        <v>0.78125</v>
       </c>
       <c r="F63" t="n">
-        <v>584</v>
+        <v>363</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64" s="1" t="n">
-        <v>0.7326388888888888</v>
-      </c>
-      <c r="E64" s="1" t="n">
-        <v>0.8229166666666666</v>
+        <v>19</v>
+      </c>
+      <c s="1" r="D64" t="n">
+        <v>0.7430555555555556</v>
+      </c>
+      <c s="1" r="E64" t="n">
+        <v>0.7777777777777778</v>
       </c>
       <c r="F64" t="n">
-        <v>640</v>
+        <v>65</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C65" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c s="1" r="D65" t="n">
         <v>0.7465277777777778</v>
       </c>
-      <c r="E65" s="1" t="n">
+      <c s="1" r="E65" t="n">
         <v>0.7777777777777778</v>
       </c>
       <c r="F65" t="n">
-        <v>609</v>
+        <v>283</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2408,77 +2492,77 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="C66" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="1" t="n">
-        <v>0.7534722222222222</v>
-      </c>
-      <c r="E66" s="1" t="n">
-        <v>0.8090277777777778</v>
+        <v>56</v>
+      </c>
+      <c s="1" r="D66" t="n">
+        <v>0.75</v>
+      </c>
+      <c s="1" r="E66" t="n">
+        <v>0.8993055555555556</v>
       </c>
       <c r="F66" t="n">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C67" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="1" t="n">
-        <v>0.7534722222222222</v>
-      </c>
-      <c r="E67" s="1" t="n">
-        <v>0.8229166666666666</v>
+        <v>19</v>
+      </c>
+      <c s="1" r="D67" t="n">
+        <v>0.7604166666666666</v>
+      </c>
+      <c s="1" r="E67" t="n">
+        <v>0.8020833333333334</v>
       </c>
       <c r="F67" t="n">
-        <v>255</v>
+        <v>98</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="C68" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="1" t="n">
-        <v>0.7638888888888888</v>
-      </c>
-      <c r="E68" s="1" t="n">
-        <v>0.8298611111111112</v>
+        <v>44</v>
+      </c>
+      <c s="1" r="D68" t="n">
+        <v>0.7604166666666666</v>
+      </c>
+      <c s="1" r="E68" t="n">
+        <v>0.7916666666666666</v>
       </c>
       <c r="F68" t="n">
-        <v>658</v>
+        <v>139</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2486,22 +2570,22 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="B69" t="s">
         <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" s="1" t="n">
-        <v>0.7743055555555556</v>
-      </c>
-      <c r="E69" s="1" t="n">
-        <v>0.8298611111111112</v>
+        <v>27</v>
+      </c>
+      <c s="1" r="D69" t="n">
+        <v>0.78125</v>
+      </c>
+      <c s="1" r="E69" t="n">
+        <v>0.9409722222222222</v>
       </c>
       <c r="F69" t="n">
-        <v>409</v>
+        <v>160</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
@@ -2512,25 +2596,25 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="1" t="n">
-        <v>0.78125</v>
-      </c>
-      <c r="E70" s="1" t="n">
-        <v>0.9756944444444444</v>
+        <v>16</v>
+      </c>
+      <c s="1" r="D70" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+      <c s="1" r="E70" t="n">
+        <v>0.9618055555555556</v>
       </c>
       <c r="F70" t="n">
-        <v>602</v>
+        <v>39</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2538,22 +2622,22 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="C71" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="1" t="n">
-        <v>0.7847222222222222</v>
-      </c>
-      <c r="E71" s="1" t="n">
-        <v>0.8229166666666666</v>
+        <v>78</v>
+      </c>
+      <c s="1" r="D71" t="n">
+        <v>0.8020833333333334</v>
+      </c>
+      <c s="1" r="E71" t="n">
+        <v>0.8715277777777778</v>
       </c>
       <c r="F71" t="n">
-        <v>496</v>
+        <v>273</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
@@ -2564,22 +2648,22 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="B72" t="s">
         <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="1" t="n">
-        <v>0.7916666666666666</v>
-      </c>
-      <c r="E72" s="1" t="n">
-        <v>0.04513888888888889</v>
+        <v>46</v>
+      </c>
+      <c s="1" r="D72" t="n">
+        <v>0.8090277777777778</v>
+      </c>
+      <c s="1" r="E72" t="n">
+        <v>0.8854166666666666</v>
       </c>
       <c r="F72" t="n">
-        <v>617</v>
+        <v>131</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
@@ -2590,22 +2674,22 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
         <v>10</v>
       </c>
-      <c r="D73" s="1" t="n">
+      <c s="1" r="D73" t="n">
         <v>0.8090277777777778</v>
       </c>
-      <c r="E73" s="1" t="n">
-        <v>0.875</v>
+      <c s="1" r="E73" t="n">
+        <v>0.8784722222222222</v>
       </c>
       <c r="F73" t="n">
-        <v>238</v>
+        <v>166</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
@@ -2616,25 +2700,25 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C74" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c s="1" r="D74" t="n">
         <v>0.8125</v>
       </c>
-      <c r="E74" s="1" t="n">
-        <v>0.8784722222222222</v>
+      <c s="1" r="E74" t="n">
+        <v>0.84375</v>
       </c>
       <c r="F74" t="n">
-        <v>646</v>
+        <v>54</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="b">
         <v>1</v>
@@ -2642,7 +2726,7 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="B75" t="s">
         <v>9</v>
@@ -2650,40 +2734,40 @@
       <c r="C75" t="s">
         <v>10</v>
       </c>
-      <c r="D75" s="1" t="n">
-        <v>0.8125</v>
-      </c>
-      <c r="E75" s="1" t="n">
-        <v>0.84375</v>
+      <c s="1" r="D75" t="n">
+        <v>0.8229166666666666</v>
+      </c>
+      <c s="1" r="E75" t="n">
+        <v>0.9618055555555556</v>
       </c>
       <c r="F75" t="n">
-        <v>529</v>
+        <v>118</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="B76" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C76" t="s">
-        <v>10</v>
-      </c>
-      <c r="D76" s="1" t="n">
-        <v>0.8263888888888888</v>
-      </c>
-      <c r="E76" s="1" t="n">
-        <v>0.8958333333333334</v>
+        <v>51</v>
+      </c>
+      <c s="1" r="D76" t="n">
+        <v>0.8298611111111112</v>
+      </c>
+      <c s="1" r="E76" t="n">
+        <v>0.9027777777777778</v>
       </c>
       <c r="F76" t="n">
-        <v>354</v>
+        <v>132</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
@@ -2694,25 +2778,25 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="B77" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C77" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="1" t="n">
-        <v>0.8298611111111112</v>
-      </c>
-      <c r="E77" s="1" t="n">
-        <v>0.9652777777777778</v>
+        <v>23</v>
+      </c>
+      <c s="1" r="D77" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c s="1" r="E77" t="n">
+        <v>0.9027777777777778</v>
       </c>
       <c r="F77" t="n">
-        <v>649</v>
+        <v>153</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="b">
         <v>1</v>
@@ -2720,22 +2804,22 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="B78" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C78" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" s="1" t="n">
-        <v>0.8368055555555556</v>
-      </c>
-      <c r="E78" s="1" t="n">
-        <v>0.875</v>
+        <v>30</v>
+      </c>
+      <c s="1" r="D78" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c s="1" r="E78" t="n">
+        <v>0.8784722222222222</v>
       </c>
       <c r="F78" t="n">
-        <v>588</v>
+        <v>179</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
@@ -2746,100 +2830,100 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="B79" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" s="1" t="n">
-        <v>0.8368055555555556</v>
-      </c>
-      <c r="E79" s="1" t="n">
-        <v>0.8784722222222222</v>
+        <v>46</v>
+      </c>
+      <c s="1" r="D79" t="n">
+        <v>0.8472222222222222</v>
+      </c>
+      <c s="1" r="E79" t="n">
+        <v>0.9131944444444444</v>
       </c>
       <c r="F79" t="n">
-        <v>232</v>
+        <v>71</v>
       </c>
       <c r="G79" t="b">
         <v>1</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="B80" t="s">
         <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80" s="1" t="n">
-        <v>0.8402777777777778</v>
-      </c>
-      <c r="E80" s="1" t="n">
-        <v>0.8715277777777778</v>
+        <v>32</v>
+      </c>
+      <c s="1" r="D80" t="n">
+        <v>0.8576388888888888</v>
+      </c>
+      <c s="1" r="E80" t="n">
+        <v>0.9097222222222222</v>
       </c>
       <c r="F80" t="n">
-        <v>413</v>
+        <v>164</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="B81" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C81" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="1" t="n">
-        <v>0.8402777777777778</v>
-      </c>
-      <c r="E81" s="1" t="n">
-        <v>0.8715277777777778</v>
+        <v>23</v>
+      </c>
+      <c s="1" r="D81" t="n">
+        <v>0.8611111111111112</v>
+      </c>
+      <c s="1" r="E81" t="n">
+        <v>0.06597222222222222</v>
       </c>
       <c r="F81" t="n">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="C82" t="s">
-        <v>10</v>
-      </c>
-      <c r="D82" s="1" t="n">
-        <v>0.8402777777777778</v>
-      </c>
-      <c r="E82" s="1" t="n">
-        <v>0.03472222222222222</v>
+        <v>78</v>
+      </c>
+      <c s="1" r="D82" t="n">
+        <v>0.8611111111111112</v>
+      </c>
+      <c s="1" r="E82" t="n">
+        <v>0.9166666666666666</v>
       </c>
       <c r="F82" t="n">
-        <v>495</v>
+        <v>444</v>
       </c>
       <c r="G82" t="b">
         <v>1</v>
@@ -2850,25 +2934,25 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B83" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C83" t="s">
-        <v>10</v>
-      </c>
-      <c r="D83" s="1" t="n">
-        <v>0.84375</v>
-      </c>
-      <c r="E83" s="1" t="n">
-        <v>0.9965277777777778</v>
+        <v>36</v>
+      </c>
+      <c s="1" r="D83" t="n">
+        <v>0.8680555555555556</v>
+      </c>
+      <c s="1" r="E83" t="n">
+        <v>0.9166666666666666</v>
       </c>
       <c r="F83" t="n">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="b">
         <v>1</v>
@@ -2876,25 +2960,25 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C84" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84" s="1" t="n">
-        <v>0.8611111111111112</v>
-      </c>
-      <c r="E84" s="1" t="n">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c s="1" r="D84" t="n">
+        <v>0.8923611111111112</v>
+      </c>
+      <c s="1" r="E84" t="n">
+        <v>0.9236111111111112</v>
       </c>
       <c r="F84" t="n">
-        <v>256</v>
+        <v>341</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" t="b">
         <v>1</v>
@@ -2902,48 +2986,48 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="C85" t="s">
-        <v>10</v>
-      </c>
-      <c r="D85" s="1" t="n">
-        <v>0.8611111111111112</v>
-      </c>
-      <c r="E85" s="1" t="n">
-        <v>0.9861111111111112</v>
+        <v>59</v>
+      </c>
+      <c s="1" r="D85" t="n">
+        <v>0.8993055555555556</v>
+      </c>
+      <c s="1" r="E85" t="n">
+        <v>0.9305555555555556</v>
       </c>
       <c r="F85" t="n">
-        <v>559</v>
+        <v>140</v>
       </c>
       <c r="G85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C86" t="s">
-        <v>10</v>
-      </c>
-      <c r="D86" s="1" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="E86" s="1" t="n">
-        <v>0.9131944444444444</v>
+        <v>19</v>
+      </c>
+      <c s="1" r="D86" t="n">
+        <v>0.8993055555555556</v>
+      </c>
+      <c s="1" r="E86" t="n">
+        <v>0.9548611111111112</v>
       </c>
       <c r="F86" t="n">
-        <v>491</v>
+        <v>97</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
@@ -2954,22 +3038,22 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C87" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="1" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="E87" s="1" t="n">
-        <v>0.9409722222222222</v>
+        <v>30</v>
+      </c>
+      <c s="1" r="D87" t="n">
+        <v>0.90625</v>
+      </c>
+      <c s="1" r="E87" t="n">
+        <v>0.04513888888888889</v>
       </c>
       <c r="F87" t="n">
-        <v>616</v>
+        <v>281</v>
       </c>
       <c r="G87" t="b">
         <v>1</v>
@@ -2980,48 +3064,48 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C88" t="s">
-        <v>10</v>
-      </c>
-      <c r="D88" s="1" t="n">
-        <v>0.8819444444444444</v>
-      </c>
-      <c r="E88" s="1" t="n">
-        <v>0.9618055555555556</v>
+        <v>30</v>
+      </c>
+      <c s="1" r="D88" t="n">
+        <v>0.9097222222222222</v>
+      </c>
+      <c s="1" r="E88" t="n">
+        <v>0.03125</v>
       </c>
       <c r="F88" t="n">
-        <v>592</v>
+        <v>230</v>
       </c>
       <c r="G88" t="b">
         <v>1</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>10</v>
-      </c>
-      <c r="D89" s="1" t="n">
-        <v>0.8819444444444444</v>
-      </c>
-      <c r="E89" s="1" t="n">
-        <v>0.9513888888888888</v>
+        <v>13</v>
+      </c>
+      <c s="1" r="D89" t="n">
+        <v>0.9097222222222222</v>
+      </c>
+      <c s="1" r="E89" t="n">
+        <v>0.04513888888888889</v>
       </c>
       <c r="F89" t="n">
-        <v>659</v>
+        <v>104</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
@@ -3032,25 +3116,25 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="B90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C90" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" s="1" t="n">
-        <v>0.8854166666666666</v>
-      </c>
-      <c r="E90" s="1" t="n">
-        <v>0.9375</v>
+        <v>36</v>
+      </c>
+      <c s="1" r="D90" t="n">
+        <v>0.9201388888888888</v>
+      </c>
+      <c s="1" r="E90" t="n">
+        <v>0.9583333333333334</v>
       </c>
       <c r="F90" t="n">
-        <v>219</v>
+        <v>56</v>
       </c>
       <c r="G90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90" t="b">
         <v>1</v>
@@ -3058,22 +3142,22 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="B91" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C91" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="1" t="n">
-        <v>0.8854166666666666</v>
-      </c>
-      <c r="E91" s="1" t="n">
-        <v>0.02777777777777778</v>
+        <v>19</v>
+      </c>
+      <c s="1" r="D91" t="n">
+        <v>0.9270833333333334</v>
+      </c>
+      <c s="1" r="E91" t="n">
+        <v>0.03819444444444445</v>
       </c>
       <c r="F91" t="n">
-        <v>231</v>
+        <v>43</v>
       </c>
       <c r="G91" t="b">
         <v>1</v>
@@ -3084,25 +3168,25 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C92" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="1" t="n">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="E92" s="1" t="n">
-        <v>0.03472222222222222</v>
+        <v>30</v>
+      </c>
+      <c s="1" r="D92" t="n">
+        <v>0.9340277777777778</v>
+      </c>
+      <c s="1" r="E92" t="n">
+        <v>0.02430555555555556</v>
       </c>
       <c r="F92" t="n">
-        <v>551</v>
+        <v>283</v>
       </c>
       <c r="G92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" t="b">
         <v>1</v>
@@ -3110,25 +3194,25 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="B93" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="C93" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" s="1" t="n">
-        <v>0.8958333333333334</v>
-      </c>
-      <c r="E93" s="1" t="n">
-        <v>0.9270833333333334</v>
+        <v>36</v>
+      </c>
+      <c s="1" r="D93" t="n">
+        <v>0.9409722222222222</v>
+      </c>
+      <c s="1" r="E93" t="n">
+        <v>0.9895833333333334</v>
       </c>
       <c r="F93" t="n">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3136,22 +3220,22 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="B94" t="s">
         <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>10</v>
-      </c>
-      <c r="D94" s="1" t="n">
-        <v>0.9131944444444444</v>
-      </c>
-      <c r="E94" s="1" t="n">
-        <v>0.06597222222222222</v>
+        <v>32</v>
+      </c>
+      <c s="1" r="D94" t="n">
+        <v>0.9409722222222222</v>
+      </c>
+      <c s="1" r="E94" t="n">
+        <v>0.1145833333333333</v>
       </c>
       <c r="F94" t="n">
-        <v>594</v>
+        <v>19</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
@@ -3162,22 +3246,22 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="B95" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="C95" t="s">
-        <v>10</v>
-      </c>
-      <c r="D95" s="1" t="n">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="E95" s="1" t="n">
-        <v>0.05902777777777778</v>
+        <v>78</v>
+      </c>
+      <c s="1" r="D95" t="n">
+        <v>0.9479166666666666</v>
+      </c>
+      <c s="1" r="E95" t="n">
+        <v>0.07291666666666667</v>
       </c>
       <c r="F95" t="n">
-        <v>179</v>
+        <v>396</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
@@ -3188,33 +3272,33 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="B96" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>10</v>
-      </c>
-      <c r="D96" s="1" t="n">
-        <v>0.9236111111111112</v>
-      </c>
-      <c r="E96" s="1" t="n">
-        <v>0.9548611111111112</v>
+        <v>40</v>
+      </c>
+      <c s="1" r="D96" t="n">
+        <v>0.9513888888888888</v>
+      </c>
+      <c s="1" r="E96" t="n">
+        <v>0.05555555555555555</v>
       </c>
       <c r="F96" t="n">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="B97" t="s">
         <v>9</v>
@@ -3222,40 +3306,40 @@
       <c r="C97" t="s">
         <v>10</v>
       </c>
-      <c r="D97" s="1" t="n">
-        <v>0.9270833333333334</v>
-      </c>
-      <c r="E97" s="1" t="n">
-        <v>0.1354166666666667</v>
+      <c s="1" r="D97" t="n">
+        <v>0.9618055555555556</v>
+      </c>
+      <c s="1" r="E97" t="n">
+        <v>0.05902777777777778</v>
       </c>
       <c r="F97" t="n">
-        <v>615</v>
+        <v>127</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="B98" t="s">
         <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>12</v>
-      </c>
-      <c r="D98" s="1" t="n">
-        <v>0.9305555555555556</v>
-      </c>
-      <c r="E98" s="1" t="n">
-        <v>0.9618055555555556</v>
+        <v>10</v>
+      </c>
+      <c s="1" r="D98" t="n">
+        <v>0.96875</v>
+      </c>
+      <c s="1" r="E98" t="n">
+        <v>0.06597222222222222</v>
       </c>
       <c r="F98" t="n">
-        <v>540</v>
+        <v>151</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
@@ -3266,51 +3350,51 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="B99" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="C99" t="s">
-        <v>12</v>
-      </c>
-      <c r="D99" s="1" t="n">
-        <v>0.9340277777777778</v>
-      </c>
-      <c r="E99" s="1" t="n">
-        <v>0.02430555555555556</v>
+        <v>44</v>
+      </c>
+      <c s="1" r="D99" t="n">
+        <v>0.9722222222222222</v>
+      </c>
+      <c s="1" r="E99" t="n">
+        <v>0.1111111111111111</v>
       </c>
       <c r="F99" t="n">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="C100" t="s">
-        <v>10</v>
-      </c>
-      <c r="D100" s="1" t="n">
-        <v>0.9444444444444444</v>
-      </c>
-      <c r="E100" s="1" t="n">
-        <v>0.02777777777777778</v>
+        <v>36</v>
+      </c>
+      <c s="1" r="D100" t="n">
+        <v>0.9791666666666666</v>
+      </c>
+      <c s="1" r="E100" t="n">
+        <v>0.03472222222222222</v>
       </c>
       <c r="F100" t="n">
-        <v>503</v>
+        <v>0</v>
       </c>
       <c r="G100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
@@ -3318,25 +3402,25 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="B101" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>10</v>
-      </c>
-      <c r="D101" s="1" t="n">
-        <v>0.9548611111111112</v>
-      </c>
-      <c r="E101" s="1" t="n">
-        <v>0.1006944444444444</v>
+        <v>13</v>
+      </c>
+      <c s="1" r="D101" t="n">
+        <v>0.9791666666666666</v>
+      </c>
+      <c s="1" r="E101" t="n">
+        <v>0.1111111111111111</v>
       </c>
       <c r="F101" t="n">
-        <v>371</v>
+        <v>270</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
@@ -3344,22 +3428,22 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="B102" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="1" t="n">
-        <v>0.9548611111111112</v>
-      </c>
-      <c r="E102" s="1" t="n">
-        <v>0.1006944444444444</v>
+        <v>10</v>
+      </c>
+      <c s="1" r="D102" t="n">
+        <v>0.9826388888888888</v>
+      </c>
+      <c s="1" r="E102" t="n">
+        <v>0.1458333333333333</v>
       </c>
       <c r="F102" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G102" t="b">
         <v>1</v>
@@ -3370,51 +3454,51 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="B103" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103" s="1" t="n">
-        <v>0.96875</v>
-      </c>
-      <c r="E103" s="1" t="n">
-        <v>0.08680555555555555</v>
+        <v>44</v>
+      </c>
+      <c s="1" r="D103" t="n">
+        <v>0.9826388888888888</v>
+      </c>
+      <c s="1" r="E103" t="n">
+        <v>0.02777777777777778</v>
       </c>
       <c r="F103" t="n">
-        <v>617</v>
+        <v>130</v>
       </c>
       <c r="G103" t="b">
         <v>1</v>
       </c>
       <c r="H103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="B104" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C104" t="s">
-        <v>10</v>
-      </c>
-      <c r="D104" s="1" t="n">
-        <v>0.9756944444444444</v>
-      </c>
-      <c r="E104" s="1" t="n">
-        <v>0.09027777777777778</v>
+        <v>23</v>
+      </c>
+      <c s="1" r="D104" t="n">
+        <v>0.9826388888888888</v>
+      </c>
+      <c s="1" r="E104" t="n">
+        <v>0.1180555555555556</v>
       </c>
       <c r="F104" t="n">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="G104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104" t="b">
         <v>1</v>
@@ -3422,22 +3506,22 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="B105" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C105" t="s">
-        <v>10</v>
-      </c>
-      <c r="D105" s="1" t="n">
-        <v>0.9791666666666666</v>
-      </c>
-      <c r="E105" s="1" t="n">
-        <v>0.09722222222222222</v>
+        <v>30</v>
+      </c>
+      <c s="1" r="D105" t="n">
+        <v>0.9861111111111112</v>
+      </c>
+      <c s="1" r="E105" t="n">
+        <v>0.03819444444444445</v>
       </c>
       <c r="F105" t="n">
-        <v>161</v>
+        <v>240</v>
       </c>
       <c r="G105" t="b">
         <v>0</v>
@@ -3448,25 +3532,25 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C106" t="s">
-        <v>10</v>
-      </c>
-      <c r="D106" s="1" t="n">
-        <v>0.9791666666666666</v>
-      </c>
-      <c r="E106" s="1" t="n">
-        <v>0.125</v>
+        <v>51</v>
+      </c>
+      <c s="1" r="D106" t="n">
+        <v>0.9930555555555556</v>
+      </c>
+      <c s="1" r="E106" t="n">
+        <v>0.02777777777777778</v>
       </c>
       <c r="F106" t="n">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="G106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106" t="b">
         <v>0</v>
@@ -3474,48 +3558,48 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="B107" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="C107" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c s="1" r="D107" t="n">
         <v>0.9930555555555556</v>
       </c>
-      <c r="E107" s="1" t="n">
-        <v>0.0625</v>
+      <c s="1" r="E107" t="n">
+        <v>0.1076388888888889</v>
       </c>
       <c r="F107" t="n">
-        <v>572</v>
+        <v>254</v>
       </c>
       <c r="G107" t="b">
         <v>1</v>
       </c>
       <c r="H107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="B108" t="s">
         <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>12</v>
-      </c>
-      <c r="D108" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c s="1" r="D108" t="n">
         <v>0.9930555555555556</v>
       </c>
-      <c r="E108" s="1" t="n">
-        <v>0.09722222222222222</v>
+      <c s="1" r="E108" t="n">
+        <v>0.03125</v>
       </c>
       <c r="F108" t="n">
-        <v>423</v>
+        <v>162</v>
       </c>
       <c r="G108" t="b">
         <v>1</v>
